--- a/angular/src/assets/sampleFiles/Calibration/CalibrationInput_EAD_CCF_Summary.xlsx
+++ b/angular/src/assets/sampleFiles/Calibration/CalibrationInput_EAD_CCF_Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\Sample Uploads\Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\ETI_ECL_Engine\angular\src\assets\sampleFiles\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D386D-E855-46E2-8364-4898BC9DFCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED1437D-593D-4F80-AE8A-3C62549D01E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -583,6 +583,8 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{5619AD69-9119-47E2-B6B7-2C8EA97AB0E0}"/>
@@ -916,19 +918,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B1E5E2-FB3A-4804-B949-E2061B45DF3F}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -949,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -960,7 +960,7 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -980,17 +980,17 @@
       <c r="B2" s="3">
         <v>231100001</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6">
+        <v>231100001</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="6">
-        <v>231100001</v>
       </c>
       <c r="E2" s="2">
         <v>201809</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="4"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="4">
         <v>7626.19</v>
       </c>
@@ -1010,17 +1010,17 @@
       <c r="B3" s="3">
         <v>274020001</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>201809</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="4">
         <v>117</v>
       </c>
@@ -1040,11 +1040,11 @@
       <c r="B4" s="3">
         <v>10113000000600</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>201412</v>
@@ -1052,7 +1052,7 @@
       <c r="F4" s="2">
         <v>41958</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="8">
         <v>42035</v>
       </c>
       <c r="H4" s="4">
@@ -1074,11 +1074,11 @@
       <c r="B5" s="3">
         <v>10113000000601</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>201503</v>
@@ -1086,7 +1086,7 @@
       <c r="F5" s="2">
         <v>41241</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="8">
         <v>41971</v>
       </c>
       <c r="H5" s="4">
@@ -1108,11 +1108,11 @@
       <c r="B6" s="3">
         <v>10113000000601</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>201506</v>
@@ -1120,7 +1120,7 @@
       <c r="F6" s="2">
         <v>41241</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="8">
         <v>41971</v>
       </c>
       <c r="H6" s="4">
@@ -1142,11 +1142,11 @@
       <c r="B7" s="3">
         <v>10113000000601</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>201509</v>
@@ -1154,7 +1154,7 @@
       <c r="F7" s="2">
         <v>41241</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="8">
         <v>41971</v>
       </c>
       <c r="H7" s="4">
@@ -1176,11 +1176,11 @@
       <c r="B8" s="3">
         <v>10113000000601</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>201512</v>
@@ -1188,7 +1188,7 @@
       <c r="F8" s="2">
         <v>41241</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="8">
         <v>41971</v>
       </c>
       <c r="H8" s="4">
@@ -1210,11 +1210,11 @@
       <c r="B9" s="3">
         <v>10113000000601</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E9" s="2">
         <v>201603</v>
@@ -1222,7 +1222,7 @@
       <c r="F9" s="2">
         <v>41818</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="8">
         <v>41971</v>
       </c>
       <c r="H9" s="4">
@@ -1244,11 +1244,11 @@
       <c r="B10" s="3">
         <v>10113000000601</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E10" s="2">
         <v>201606</v>
@@ -1256,7 +1256,7 @@
       <c r="F10" s="2">
         <v>41818</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="8">
         <v>41971</v>
       </c>
       <c r="H10" s="4">
@@ -1278,7 +1278,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="2"/>
@@ -1292,7 +1292,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="2"/>
@@ -1306,7 +1306,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="2"/>
@@ -1320,7 +1320,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="2"/>
@@ -1334,7 +1334,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="2"/>
@@ -1348,7 +1348,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="2"/>
@@ -1362,7 +1362,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
@@ -1376,7 +1376,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>

--- a/angular/src/assets/sampleFiles/Calibration/CalibrationInput_EAD_CCF_Summary.xlsx
+++ b/angular/src/assets/sampleFiles/Calibration/CalibrationInput_EAD_CCF_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\ETI_ECL_Engine\angular\src\assets\sampleFiles\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED1437D-593D-4F80-AE8A-3C62549D01E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA13513-BF79-45DF-84EB-2DAA01450ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -585,6 +585,8 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{5619AD69-9119-47E2-B6B7-2C8EA97AB0E0}"/>
@@ -918,7 +920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B1E5E2-FB3A-4804-B949-E2061B45DF3F}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -926,7 +930,7 @@
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -954,7 +958,7 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
@@ -986,7 +990,7 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="10">
         <v>201809</v>
       </c>
       <c r="F2" s="1"/>
@@ -1016,7 +1020,7 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="10">
         <v>201809</v>
       </c>
       <c r="F3" s="1"/>
@@ -1046,7 +1050,7 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="10">
         <v>201412</v>
       </c>
       <c r="F4" s="2">
@@ -1080,7 +1084,7 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="10">
         <v>201503</v>
       </c>
       <c r="F5" s="2">
@@ -1114,7 +1118,7 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="10">
         <v>201506</v>
       </c>
       <c r="F6" s="2">
@@ -1148,7 +1152,7 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="10">
         <v>201509</v>
       </c>
       <c r="F7" s="2">
@@ -1182,7 +1186,7 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="10">
         <v>201512</v>
       </c>
       <c r="F8" s="2">
@@ -1216,7 +1220,7 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="10">
         <v>201603</v>
       </c>
       <c r="F9" s="2">
@@ -1250,7 +1254,7 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="10">
         <v>201606</v>
       </c>
       <c r="F10" s="2">
@@ -1276,7 +1280,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1"/>
       <c r="G11" s="8"/>
       <c r="H11" s="4"/>
@@ -1290,7 +1294,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1"/>
       <c r="G12" s="8"/>
       <c r="H12" s="4"/>
@@ -1304,7 +1308,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1"/>
       <c r="G13" s="8"/>
       <c r="H13" s="4"/>
@@ -1318,7 +1322,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1"/>
       <c r="G14" s="8"/>
       <c r="H14" s="4"/>
@@ -1332,7 +1336,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="1"/>
       <c r="G15" s="8"/>
       <c r="H15" s="4"/>
@@ -1346,7 +1350,7 @@
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="1"/>
       <c r="G16" s="8"/>
       <c r="H16" s="4"/>
@@ -1360,7 +1364,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="1"/>
       <c r="G17" s="8"/>
       <c r="H17" s="4"/>
@@ -1374,7 +1378,7 @@
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="1"/>
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>

--- a/angular/src/assets/sampleFiles/Calibration/CalibrationInput_EAD_CCF_Summary.xlsx
+++ b/angular/src/assets/sampleFiles/Calibration/CalibrationInput_EAD_CCF_Summary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\ETI_ECL_Engine\angular\src\assets\sampleFiles\Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PwC\Projects\SourceCode\Firs_9_ECL\FrontEnd\angular\src\assets\sampleFiles\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA13513-BF79-45DF-84EB-2DAA01450ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F493C4-499B-4430-98D8-260243630BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="27" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Customer_No</t>
   </si>
@@ -81,6 +79,9 @@
   </si>
   <si>
     <t>10113000000601</t>
+  </si>
+  <si>
+    <t>Serial</t>
   </si>
 </sst>
 </file>
@@ -575,7 +576,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -587,6 +588,7 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{5619AD69-9119-47E2-B6B7-2C8EA97AB0E0}"/>
@@ -921,7 +923,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +938,7 @@
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -976,6 +978,9 @@
       <c r="J1" t="s">
         <v>3</v>
       </c>
+      <c r="K1" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -1004,7 +1009,9 @@
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1034,7 +1041,10 @@
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="1">
+        <f>1+K2</f>
+        <v>2</v>
+      </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1068,7 +1078,10 @@
       <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K10" si="0">1+K3</f>
+        <v>3</v>
+      </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1102,7 +1115,10 @@
       <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1136,7 +1152,10 @@
       <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1170,7 +1189,10 @@
       <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1204,7 +1226,10 @@
       <c r="J8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1238,7 +1263,10 @@
       <c r="J9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1272,7 +1300,10 @@
       <c r="J10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1286,7 +1317,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1300,7 +1331,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1314,7 +1345,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1328,7 +1359,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1342,7 +1373,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1356,7 +1387,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1370,7 +1401,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1384,7 +1415,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="2"/>
     </row>
   </sheetData>
